--- a/CASUAL/LA CHO/REMOLLENO, MICHELLE UBALDO.xlsx
+++ b/CASUAL/LA CHO/REMOLLENO, MICHELLE UBALDO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2329,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2670,12 +2676,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,7 +2846,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>34.905000000000001</v>
+        <v>37.655000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2850,7 +2856,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.917000000000002</v>
+        <v>57.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3948,13 +3954,15 @@
         <v>45170</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -3966,13 +3974,15 @@
         <v>45200</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -3984,13 +3994,15 @@
         <v>45231</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4001,9 +4013,13 @@
       <c r="A65" s="40">
         <v>45261</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>1</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
@@ -4013,10 +4029,14 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="49">
+        <v>45289</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -4032,7 +4052,9 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>45292</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -4048,7 +4070,9 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>45323</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4064,7 +4088,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>45352</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4080,7 +4106,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>45383</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4096,7 +4124,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>45413</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4112,7 +4142,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45444</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4128,7 +4160,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>45474</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4144,7 +4178,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45505</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4160,7 +4196,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45536</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4176,7 +4214,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>45566</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4192,7 +4232,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>45597</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4208,7 +4250,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45627</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4224,7 +4268,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45658</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -5136,20 +5182,36 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
